--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -25,7 +25,7 @@
     <t>data</t>
   </si>
   <si>
-    <t>salário e auxílio alimentação</t>
+    <t>salários e auxílios alimentação</t>
   </si>
   <si>
     <t>ração e agropecuária</t>
